--- a/Documents/Algorithms.xlsx
+++ b/Documents/Algorithms.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm 1" sheetId="1" r:id="rId1"/>
     <sheet name="Algorithm 2" sheetId="2" r:id="rId2"/>
     <sheet name="Algorithm 3" sheetId="3" r:id="rId3"/>
     <sheet name="Algorithm 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Algorithm 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t xml:space="preserve">Declare @CountOfScholarships </t>
   </si>
@@ -102,6 +103,27 @@
   </si>
   <si>
     <t>Get Top Ranked Applicant Who Has Not Already Won</t>
+  </si>
+  <si>
+    <t>Declare @CurrentSplitAmount</t>
+  </si>
+  <si>
+    <t>declare @CountOfApplicants</t>
+  </si>
+  <si>
+    <t>Get Scholarship And Applicant Data</t>
+  </si>
+  <si>
+    <t>Set @CurrentAmount and @CountOfApplicants</t>
+  </si>
+  <si>
+    <t>set @Currentsplitamount as @CurrentAmount/@CountOfApplicants</t>
+  </si>
+  <si>
+    <t>Foreach Applicants</t>
+  </si>
+  <si>
+    <t>Set Result with @currentsplitamount</t>
   </si>
 </sst>
 </file>
@@ -784,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -903,4 +925,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Algorithms.xlsx
+++ b/Documents/Algorithms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm 1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Algorithm 3" sheetId="3" r:id="rId3"/>
     <sheet name="Algorithm 4" sheetId="4" r:id="rId4"/>
     <sheet name="Algorithm 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Algorithm 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Algorithm 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
   <si>
     <t xml:space="preserve">Declare @CountOfScholarships </t>
   </si>
@@ -124,6 +126,36 @@
   </si>
   <si>
     <t>Set Result with @currentsplitamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set @CurrentAmount </t>
+  </si>
+  <si>
+    <t>set @CurrentamountOfAPplicants to the higher number of actual appications or maximum applicants</t>
+  </si>
+  <si>
+    <t>set @Currentsplitamount as @CurrentAmount/@CurrentAmountofapplicants</t>
+  </si>
+  <si>
+    <t>set @applicantwithminimumamounts =@currentamount/@minmum award</t>
+  </si>
+  <si>
+    <t>if &lt;1 then set to 1</t>
+  </si>
+  <si>
+    <t>set @countofapplicants</t>
+  </si>
+  <si>
+    <t>declare @peopletodivideby</t>
+  </si>
+  <si>
+    <t>set @peopletodivideby as lesser of @applicantswithminimumamounts</t>
+  </si>
+  <si>
+    <t>set @currentsplitamouont  =@currentamount/@peopletodivideby</t>
+  </si>
+  <si>
+    <t>Foreach top @peopletodivideby</t>
   </si>
 </sst>
 </file>
@@ -931,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1050,4 +1082,284 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Algorithms.xlsx
+++ b/Documents/Algorithms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\ScholarshipAwardingProcess\scholarshipawardingprocess\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Documents\scholarshipawardingprocess\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm 1" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Algorithms.xlsx
+++ b/Documents/Algorithms.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Algorithm 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Algorithm 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Algorithm 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Algorithm 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Algorithm 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Algorithm 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Algorithm 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Rational Assumption" sheetId="8" r:id="rId1"/>
+    <sheet name="Algorithm 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Algorithm 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Algorithm 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Algorithm 4" sheetId="4" r:id="rId5"/>
+    <sheet name="Algorithm 5" sheetId="5" r:id="rId6"/>
+    <sheet name="Algorithm 6" sheetId="6" r:id="rId7"/>
+    <sheet name="Algorithm 7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t xml:space="preserve">Declare @CountOfScholarships </t>
   </si>
@@ -156,14 +157,46 @@
   </si>
   <si>
     <t>Foreach top @peopletodivideby</t>
+  </si>
+  <si>
+    <t>Student Ranking</t>
+  </si>
+  <si>
+    <t>RA1</t>
+  </si>
+  <si>
+    <t>RA2</t>
+  </si>
+  <si>
+    <t>RA3</t>
+  </si>
+  <si>
+    <t>Set 1</t>
+  </si>
+  <si>
+    <t>Set 2</t>
+  </si>
+  <si>
+    <t>Set 3</t>
+  </si>
+  <si>
+    <t>Set 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,9 +230,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,6 +522,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>500</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+      <c r="C4" s="2">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -591,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -709,7 +925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -834,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -959,7 +1175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1084,11 +1300,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1214,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
